--- a/natmiOut/OldD0/LR-pairs_lrc2p/Efnb3-Ephb6.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Efnb3-Ephb6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,10 +519,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -528,49 +531,49 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.282779219674573</v>
+        <v>0.071327</v>
       </c>
       <c r="H2">
-        <v>0.282779219674573</v>
+        <v>0.213981</v>
       </c>
       <c r="I2">
-        <v>0.1414981790701732</v>
+        <v>0.03356605248408491</v>
       </c>
       <c r="J2">
-        <v>0.1414981790701732</v>
+        <v>0.03356605248408491</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.16111077686364</v>
+        <v>0.095455</v>
       </c>
       <c r="N2">
-        <v>1.16111077686364</v>
+        <v>0.286365</v>
       </c>
       <c r="O2">
-        <v>0.4190493404401298</v>
+        <v>0.03201851307709132</v>
       </c>
       <c r="P2">
-        <v>0.4190493404401298</v>
+        <v>0.03201851307709131</v>
       </c>
       <c r="Q2">
-        <v>0.3283379994372373</v>
+        <v>0.006808518785</v>
       </c>
       <c r="R2">
-        <v>0.3283379994372373</v>
+        <v>0.061276669065</v>
       </c>
       <c r="S2">
-        <v>0.05929471861283547</v>
+        <v>0.001074735090408006</v>
       </c>
       <c r="T2">
-        <v>0.05929471861283547</v>
+        <v>0.001074735090408006</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,10 +581,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -590,111 +593,111 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.282779219674573</v>
+        <v>0.071327</v>
       </c>
       <c r="H3">
-        <v>0.282779219674573</v>
+        <v>0.213981</v>
       </c>
       <c r="I3">
-        <v>0.1414981790701732</v>
+        <v>0.03356605248408491</v>
       </c>
       <c r="J3">
-        <v>0.1414981790701732</v>
+        <v>0.03356605248408491</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.60971037666477</v>
+        <v>1.220310333333333</v>
       </c>
       <c r="N3">
-        <v>1.60971037666477</v>
+        <v>3.660931</v>
       </c>
       <c r="O3">
-        <v>0.5809506595598701</v>
+        <v>0.4093292375039861</v>
       </c>
       <c r="P3">
-        <v>0.5809506595598701</v>
+        <v>0.409329237503986</v>
       </c>
       <c r="Q3">
-        <v>0.4551926442153266</v>
+        <v>0.08704107514566665</v>
       </c>
       <c r="R3">
-        <v>0.4551926442153266</v>
+        <v>0.783369676311</v>
       </c>
       <c r="S3">
-        <v>0.08220346045733774</v>
+        <v>0.01373956666932926</v>
       </c>
       <c r="T3">
-        <v>0.08220346045733774</v>
+        <v>0.01373956666932925</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.71568621311615</v>
+        <v>0.071327</v>
       </c>
       <c r="H4">
-        <v>1.71568621311615</v>
+        <v>0.213981</v>
       </c>
       <c r="I4">
-        <v>0.8585018209298267</v>
+        <v>0.03356605248408491</v>
       </c>
       <c r="J4">
-        <v>0.8585018209298267</v>
+        <v>0.03356605248408491</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.16111077686364</v>
+        <v>1.665478666666666</v>
       </c>
       <c r="N4">
-        <v>1.16111077686364</v>
+        <v>4.996435999999999</v>
       </c>
       <c r="O4">
-        <v>0.4190493404401298</v>
+        <v>0.5586522494189227</v>
       </c>
       <c r="P4">
-        <v>0.4190493404401298</v>
+        <v>0.5586522494189227</v>
       </c>
       <c r="Q4">
-        <v>1.99210175176553</v>
+        <v>0.1187935968573333</v>
       </c>
       <c r="R4">
-        <v>1.99210175176553</v>
+        <v>1.069142371716</v>
       </c>
       <c r="S4">
-        <v>0.3597546218272943</v>
+        <v>0.01875175072434765</v>
       </c>
       <c r="T4">
-        <v>0.3597546218272943</v>
+        <v>0.01875175072434765</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -702,61 +705,371 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.308223</v>
+      </c>
+      <c r="H5">
+        <v>0.9246690000000001</v>
+      </c>
+      <c r="I5">
+        <v>0.1450478695977975</v>
+      </c>
+      <c r="J5">
+        <v>0.1450478695977975</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.095455</v>
+      </c>
+      <c r="N5">
+        <v>0.286365</v>
+      </c>
+      <c r="O5">
+        <v>0.03201851307709132</v>
+      </c>
+      <c r="P5">
+        <v>0.03201851307709131</v>
+      </c>
+      <c r="Q5">
+        <v>0.029421426465</v>
+      </c>
+      <c r="R5">
+        <v>0.264792838185</v>
+      </c>
+      <c r="S5">
+        <v>0.004644217109521316</v>
+      </c>
+      <c r="T5">
+        <v>0.004644217109521315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.308223</v>
+      </c>
+      <c r="H6">
+        <v>0.9246690000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.1450478695977975</v>
+      </c>
+      <c r="J6">
+        <v>0.1450478695977975</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1.220310333333333</v>
+      </c>
+      <c r="N6">
+        <v>3.660931</v>
+      </c>
+      <c r="O6">
+        <v>0.4093292375039861</v>
+      </c>
+      <c r="P6">
+        <v>0.409329237503986</v>
+      </c>
+      <c r="Q6">
+        <v>0.376127711871</v>
+      </c>
+      <c r="R6">
+        <v>3.385149406839</v>
+      </c>
+      <c r="S6">
+        <v>0.05937233386404406</v>
+      </c>
+      <c r="T6">
+        <v>0.05937233386404405</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.308223</v>
+      </c>
+      <c r="H7">
+        <v>0.9246690000000001</v>
+      </c>
+      <c r="I7">
+        <v>0.1450478695977975</v>
+      </c>
+      <c r="J7">
+        <v>0.1450478695977975</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.665478666666666</v>
+      </c>
+      <c r="N7">
+        <v>4.996435999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.5586522494189227</v>
+      </c>
+      <c r="P7">
+        <v>0.5586522494189227</v>
+      </c>
+      <c r="Q7">
+        <v>0.513338831076</v>
+      </c>
+      <c r="R7">
+        <v>4.620049479684</v>
+      </c>
+      <c r="S7">
+        <v>0.08103131862423214</v>
+      </c>
+      <c r="T7">
+        <v>0.08103131862423214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.745424333333333</v>
+      </c>
+      <c r="H8">
+        <v>5.236273</v>
+      </c>
+      <c r="I8">
+        <v>0.8213860779181176</v>
+      </c>
+      <c r="J8">
+        <v>0.8213860779181176</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.095455</v>
+      </c>
+      <c r="N8">
+        <v>0.286365</v>
+      </c>
+      <c r="O8">
+        <v>0.03201851307709132</v>
+      </c>
+      <c r="P8">
+        <v>0.03201851307709131</v>
+      </c>
+      <c r="Q8">
+        <v>0.1666094797383333</v>
+      </c>
+      <c r="R8">
+        <v>1.499485317645</v>
+      </c>
+      <c r="S8">
+        <v>0.026299560877162</v>
+      </c>
+      <c r="T8">
+        <v>0.02629956087716199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1.71568621311615</v>
-      </c>
-      <c r="H5">
-        <v>1.71568621311615</v>
-      </c>
-      <c r="I5">
-        <v>0.8585018209298267</v>
-      </c>
-      <c r="J5">
-        <v>0.8585018209298267</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1.60971037666477</v>
-      </c>
-      <c r="N5">
-        <v>1.60971037666477</v>
-      </c>
-      <c r="O5">
-        <v>0.5809506595598701</v>
-      </c>
-      <c r="P5">
-        <v>0.5809506595598701</v>
-      </c>
-      <c r="Q5">
-        <v>2.761757900353751</v>
-      </c>
-      <c r="R5">
-        <v>2.761757900353751</v>
-      </c>
-      <c r="S5">
-        <v>0.4987471991025323</v>
-      </c>
-      <c r="T5">
-        <v>0.4987471991025323</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.745424333333333</v>
+      </c>
+      <c r="H9">
+        <v>5.236273</v>
+      </c>
+      <c r="I9">
+        <v>0.8213860779181176</v>
+      </c>
+      <c r="J9">
+        <v>0.8213860779181176</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.220310333333333</v>
+      </c>
+      <c r="N9">
+        <v>3.660931</v>
+      </c>
+      <c r="O9">
+        <v>0.4093292375039861</v>
+      </c>
+      <c r="P9">
+        <v>0.409329237503986</v>
+      </c>
+      <c r="Q9">
+        <v>2.129959350018111</v>
+      </c>
+      <c r="R9">
+        <v>19.169634150163</v>
+      </c>
+      <c r="S9">
+        <v>0.3362173369706128</v>
+      </c>
+      <c r="T9">
+        <v>0.3362173369706127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.745424333333333</v>
+      </c>
+      <c r="H10">
+        <v>5.236273</v>
+      </c>
+      <c r="I10">
+        <v>0.8213860779181176</v>
+      </c>
+      <c r="J10">
+        <v>0.8213860779181176</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.665478666666666</v>
+      </c>
+      <c r="N10">
+        <v>4.996435999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.5586522494189227</v>
+      </c>
+      <c r="P10">
+        <v>0.5586522494189227</v>
+      </c>
+      <c r="Q10">
+        <v>2.906966991447555</v>
+      </c>
+      <c r="R10">
+        <v>26.16270292302799</v>
+      </c>
+      <c r="S10">
+        <v>0.4588691800703429</v>
+      </c>
+      <c r="T10">
+        <v>0.4588691800703429</v>
       </c>
     </row>
   </sheetData>
